--- a/biology/Zoologie/Hyloscirtus_sethmacfarlanei/Hyloscirtus_sethmacfarlanei.xlsx
+++ b/biology/Zoologie/Hyloscirtus_sethmacfarlanei/Hyloscirtus_sethmacfarlanei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyloscirtus sethmacfarlanei est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyloscirtus sethmacfarlanei est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de l'Equateur. Sa localité type se trouve dans la Cordillère des Andes à une altitude de 2 970 m[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de l'Equateur. Sa localité type se trouve dans la Cordillère des Andes à une altitude de 2 970 m.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'espèce Hyloscirtus sethmacfarlanei est décrite en 2022 par Juan Pablo Reyes-Puig (d), Darwin Recalde (d), Fausto Recalde (d), Claudia Koch (d), Juan M. Guayasamin, Diego F. Cisneros-Heredia (d), Lou Jost (d) et Mario Humberto Yánez-Muñoz (d)[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>L'espèce Hyloscirtus sethmacfarlanei est décrite en 2022 par Juan Pablo Reyes-Puig (d), Darwin Recalde (d), Fausto Recalde (d), Claudia Koch (d), Juan M. Guayasamin, Diego F. Cisneros-Heredia (d), Lou Jost (d) et Mario Humberto Yánez-Muñoz (d),.
 Les noms vernaculaires proposés pour cette espèce sont :
 en anglais, Seth MacFarlane’s torrent frog ;
 en espagnol, Rana de torrente de Seth MacFarlane.</t>
@@ -575,9 +591,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, sethmacfarlanei, lui a été donnée en l'honneur de l'acteur, scénariste, réalisateur et producteur américain Seth MacFarlane pour sa passion pour les sciences, la biodiversité et la nature[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, sethmacfarlanei, lui a été donnée en l'honneur de l'acteur, scénariste, réalisateur et producteur américain Seth MacFarlane pour sa passion pour les sciences, la biodiversité et la nature.
 </t>
         </is>
       </c>
@@ -606,7 +624,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Juan P. Reyes-Puig, Darwin Recalde, Fausto Recalde, Claudia Koch, Juan M. Guayasamin, Diego F. Cisneros-Heredia, Lou Jost et Mario H. Yánez-Muñoz, « A spectacular new species of Hyloscirtus (Anura: Hylidae) from the Cordillera de Los Llanganates in the eastern Andes of Ecuador », PeerJ, PeerJ Publishing (d), vol. 10,‎ 29 septembre 2022, e14066 (ISSN 2167-8359, OCLC 793828439, DOI 10.7717/PEERJ.14066, lire en ligne)</t>
         </is>
